--- a/maskJournal.xlsx
+++ b/maskJournal.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>31</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>32</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>33</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>34</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>46</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>47</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>48</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>49</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>51</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>53</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>54</v>
@@ -546,14 +546,19 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>61</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:A21">
+  <sortState ref="A2:A22">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maskJournal.xlsx
+++ b/maskJournal.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>31</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>32</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>33</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>34</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>46</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>47</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>48</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>49</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>51</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>53</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>54</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>61</v>
@@ -554,11 +554,26 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A22">
+  <sortState ref="A2:A25">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maskJournal.xlsx
+++ b/maskJournal.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>46</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>47</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>48</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>49</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>51</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>53</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>54</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>61</v>
@@ -554,26 +554,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A25">
+  <sortState ref="A2:A26">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maskJournal.xlsx
+++ b/maskJournal.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>47</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>48</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>49</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>50</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>51</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>53</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>54</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>61</v>
@@ -554,32 +554,52 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A26">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:A30">
+    <sortCondition ref="A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/maskJournal.xlsx
+++ b/maskJournal.xlsx
@@ -367,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +413,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -421,7 +421,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -429,7 +429,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -437,7 +437,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,7 +445,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -453,7 +453,7 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -501,7 +501,7 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,57 +549,99 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>34</v>
       </c>
+      <c r="B22">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35</v>
       </c>
+      <c r="B23">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
+      <c r="B24">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>37</v>
       </c>
+      <c r="B25">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39</v>
       </c>
+      <c r="B26">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40</v>
       </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>41</v>
       </c>
+      <c r="B28">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>62</v>
       </c>
+      <c r="B29">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>66</v>
       </c>
+      <c r="B30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>66-COUNT(A2:A36)</f>
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f>61-COUNT(B2:B36)</f>
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A30">
-    <sortCondition ref="A10"/>
+  <sortState ref="B2:B31">
+    <sortCondition ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
